--- a/Data/Enhanced Beliefs - 3233416451/3233416451.xlsx
+++ b/Data/Enhanced Beliefs - 3233416451/3233416451.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.8.3\Enhanced Beliefs - 3233416451\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\RMK\Data\Enhanced Beliefs - 3233416451\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBAFFC-DF74-4538-AAEA-E057C315C312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F84F5EF-F813-4982-A131-33A50BEE9C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_240430" sheetId="1" r:id="rId1"/>
+    <sheet name="Main_240507" sheetId="2" r:id="rId1"/>
+    <sheet name="240430" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -90,6 +91,236 @@
   </si>
   <si>
     <t>r_logentry-&gt;[INITIATOR_nameDef](이)가 [RECIPIENT_nameDef](와)과 각자의 사상에 관한 토론을 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our religious book has been destroyed. That is absolutely unexcusable.</t>
+  </si>
+  <si>
+    <t>EB_ReligiousBookDestroyed.stages.0.description</t>
+  </si>
+  <si>
+    <t>ThoughtDef</t>
+  </si>
+  <si>
+    <t>ThoughtDef+EB_ReligiousBookDestroyed.stages.0.description</t>
+  </si>
+  <si>
+    <t>religious book destroyed</t>
+  </si>
+  <si>
+    <t>EB_ReligiousBookDestroyed.stages.0.label</t>
+  </si>
+  <si>
+    <t>ThoughtDef+EB_ReligiousBookDestroyed.stages.0.label</t>
+  </si>
+  <si>
+    <t>{0} is having a tantrum.\n\n[PAWN_pronoun] is going try and destroy religious books.</t>
+  </si>
+  <si>
+    <t>EB_Iconoclast.beginLetter</t>
+  </si>
+  <si>
+    <t>MentalStateDef</t>
+  </si>
+  <si>
+    <t>MentalStateDef+EB_Iconoclast.beginLetter</t>
+  </si>
+  <si>
+    <t>Mental state: Tantrum</t>
+  </si>
+  <si>
+    <t>EB_Iconoclast.baseInspectLine</t>
+  </si>
+  <si>
+    <t>MentalStateDef+EB_Iconoclast.baseInspectLine</t>
+  </si>
+  <si>
+    <t>{0} is no longer having a tantrum.</t>
+  </si>
+  <si>
+    <t>EB_Iconoclast.recoveryMessage</t>
+  </si>
+  <si>
+    <t>MentalStateDef+EB_Iconoclast.recoveryMessage</t>
+  </si>
+  <si>
+    <t>tantrum</t>
+  </si>
+  <si>
+    <t>EB_Iconoclast.label</t>
+  </si>
+  <si>
+    <t>MentalStateDef+EB_Iconoclast.label</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>EB_WriteReligiousBook.gerund</t>
+  </si>
+  <si>
+    <t>WorkGiverDef</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+EB_WriteReligiousBook.gerund</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>EB_WriteReligiousBook.verb</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+EB_WriteReligiousBook.verb</t>
+  </si>
+  <si>
+    <t>write religious book</t>
+  </si>
+  <si>
+    <t>EB_WriteReligiousBook.label</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+EB_WriteReligiousBook.label</t>
+  </si>
+  <si>
+    <t>finishing writing TargetA.</t>
+  </si>
+  <si>
+    <t>EB_CompleteReligiousBook.reportString</t>
+  </si>
+  <si>
+    <t>JobDef</t>
+  </si>
+  <si>
+    <t>JobDef+EB_CompleteReligiousBook.reportString</t>
+  </si>
+  <si>
+    <t>burning TargetA.</t>
+  </si>
+  <si>
+    <t>EB_BurnReligiousBook.reportString</t>
+  </si>
+  <si>
+    <t>JobDef+EB_BurnReligiousBook.reportString</t>
+  </si>
+  <si>
+    <t>r_logentry-&gt;[INITIATOR_nameDef](이)가 [RECIPIENT_nameDef](와)과 각자의 사상에 관한 토론을 함.</t>
+  </si>
+  <si>
+    <t>Inspired: Religious enlightenment</t>
+  </si>
+  <si>
+    <t>EB_ReligiousBook.baseInspectLine</t>
+  </si>
+  <si>
+    <t>InspirationDef</t>
+  </si>
+  <si>
+    <t>InspirationDef+EB_ReligiousBook.baseInspectLine</t>
+  </si>
+  <si>
+    <t>[PAWN_pronoun] had a sudden enlightenment and decided to start writing a religious book.</t>
+  </si>
+  <si>
+    <t>EB_ReligiousBook.beginLetter</t>
+  </si>
+  <si>
+    <t>InspirationDef+EB_ReligiousBook.beginLetter</t>
+  </si>
+  <si>
+    <t>religious enlightenment</t>
+  </si>
+  <si>
+    <t>EB_ReligiousBook.label</t>
+  </si>
+  <si>
+    <t>InspirationDef+EB_ReligiousBook.label</t>
+  </si>
+  <si>
+    <t>An unfinished religious book which must be completed by a moral guide.</t>
+  </si>
+  <si>
+    <t>EB_UnfinishedIdeobook.description</t>
+  </si>
+  <si>
+    <t>ThingDef</t>
+  </si>
+  <si>
+    <t>ThingDef+EB_UnfinishedIdeobook.description</t>
+  </si>
+  <si>
+    <t>unfinished religious book</t>
+  </si>
+  <si>
+    <t>EB_UnfinishedIdeobook.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EB_UnfinishedIdeobook.label</t>
+  </si>
+  <si>
+    <t>A book containing fictional or true stories for the pleasure and edification of the reader.</t>
+  </si>
+  <si>
+    <t>EB_Ideobook.description</t>
+  </si>
+  <si>
+    <t>ThingDef+EB_Ideobook.description</t>
+  </si>
+  <si>
+    <t>religious book</t>
+  </si>
+  <si>
+    <t>EB_Ideobook.label</t>
+  </si>
+  <si>
+    <t>ThingDef+EB_Ideobook.label</t>
+  </si>
+  <si>
+    <t>집필</t>
+  </si>
+  <si>
+    <t>집필하기</t>
+  </si>
+  <si>
+    <t>종교 서적 집필</t>
+  </si>
+  <si>
+    <t>우리 종교 서적이 파괴됐어. 어떤 이유를 대든 용납할 수 없는 일이야.</t>
+  </si>
+  <si>
+    <t>종교 서적이 파괴됨</t>
+  </si>
+  <si>
+    <t>종교 지도자에 의해 완성되어야 하는 미완성 종교 서적입니다.</t>
+  </si>
+  <si>
+    <t>미완성 종교 서적</t>
+  </si>
+  <si>
+    <t>독자를 즐겁게 하면서 동시에 교훈을 주는 허구나 실화를 담은 책입니다.</t>
+  </si>
+  <si>
+    <t>종교 서적</t>
+  </si>
+  <si>
+    <t>{0}(이)가 분노로 울부짖고 있습니다.\n\n[PAWN_pronoun](은)는 종교 서적을 보이는 대로 없애려 할 것입니다.</t>
+  </si>
+  <si>
+    <t>종교적 깨달음</t>
+  </si>
+  <si>
+    <t>[PAWN_pronoun](은)는 갑자기 깨달음을 얻어 종교 서적을 쓰기로 결심했습니다.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TargetA 집필하는 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetA 태우는 중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -117,12 +348,17 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,9 +373,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -441,10 +678,518 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA5FB9-5823-4596-9B32-7B6B7E08A662}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="74.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="97.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A2,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A3,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A4,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A5,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A6,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A7,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A8,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A9,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A10,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A11,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A12,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A13,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A14,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A15,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A16,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A17,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A18,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A19,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A20,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A21,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A22,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>IFERROR(VLOOKUP(A23,#REF!,6,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
